--- a/dataentry.xlsx
+++ b/dataentry.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/63E31116EED35C13/Documents/ms excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/63e31116eed35c13/Documents/ms excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{397EE83B-02AA-4E3A-A6CA-0D184936B3FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{3289F9DD-55A2-4D8E-A70B-C7B75DADDD17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="642" xr2:uid="{F8AA01B9-AE19-4901-9C8D-0E4987409578}"/>
   </bookViews>
@@ -465,7 +465,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -506,15 +506,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -526,15 +517,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -543,10 +525,25 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -570,10 +567,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -876,7 +869,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -891,150 +884,150 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="25"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="26"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="27" t="s">
+      <c r="G2" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="H2" s="27" t="s">
+      <c r="H2" s="21" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="19">
+      <c r="A3" s="16">
         <v>1</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="19">
+      <c r="C3" s="16">
         <v>75</v>
       </c>
-      <c r="D3" s="19">
+      <c r="D3" s="16">
         <v>65</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E3" s="16">
         <v>33</v>
       </c>
-      <c r="F3" s="19">
+      <c r="F3" s="16">
         <v>22</v>
       </c>
-      <c r="G3" s="19">
+      <c r="G3" s="16">
         <v>195</v>
       </c>
-      <c r="H3" s="30">
+      <c r="H3" s="23">
         <f>G3/400*100%</f>
         <v>0.48749999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="21">
+      <c r="A4" s="18">
         <v>2</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C4" s="18">
         <v>76</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D4" s="18">
         <v>66</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="18">
         <v>34</v>
       </c>
-      <c r="F4" s="21">
+      <c r="F4" s="18">
         <v>23</v>
       </c>
-      <c r="G4" s="19">
+      <c r="G4" s="16">
         <f>SUM(C4:F4)</f>
         <v>199</v>
       </c>
-      <c r="H4" s="30">
+      <c r="H4" s="23">
         <f t="shared" ref="H4:H12" si="0">G4/400*100%</f>
         <v>0.4975</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="21">
+      <c r="A5" s="18">
         <v>3</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="18">
         <v>77</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="18">
         <v>67</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="18">
         <v>35</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="18">
         <v>24</v>
       </c>
-      <c r="G5" s="19">
+      <c r="G5" s="16">
         <f t="shared" ref="G5:G12" si="1">SUM(C5:F5)</f>
         <v>203</v>
       </c>
-      <c r="H5" s="30">
+      <c r="H5" s="23">
         <f t="shared" si="0"/>
         <v>0.50749999999999995</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="21">
+      <c r="A6" s="18">
         <v>4</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C6" s="18">
         <v>78</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="18">
         <v>68</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="18">
         <v>36</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="18">
         <v>25</v>
       </c>
-      <c r="G6" s="19">
+      <c r="G6" s="16">
         <f t="shared" si="1"/>
         <v>207</v>
       </c>
-      <c r="H6" s="30">
+      <c r="H6" s="23">
         <f t="shared" si="0"/>
         <v>0.51749999999999996</v>
       </c>
@@ -1044,169 +1037,169 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="21">
+      <c r="A7" s="18">
         <v>5</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="21">
+      <c r="C7" s="18">
         <v>79</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="18">
         <v>69</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="18">
         <v>37</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="18">
         <v>26</v>
       </c>
-      <c r="G7" s="19">
+      <c r="G7" s="16">
         <f t="shared" si="1"/>
         <v>211</v>
       </c>
-      <c r="H7" s="30">
+      <c r="H7" s="23">
         <f t="shared" si="0"/>
         <v>0.52749999999999997</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="21">
+      <c r="A8" s="18">
         <v>6</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="18">
         <v>80</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="18">
         <v>70</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8" s="18">
         <v>38</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="18">
         <v>27</v>
       </c>
-      <c r="G8" s="19">
+      <c r="G8" s="16">
         <f t="shared" si="1"/>
         <v>215</v>
       </c>
-      <c r="H8" s="30">
+      <c r="H8" s="23">
         <f t="shared" si="0"/>
         <v>0.53749999999999998</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="21">
+      <c r="A9" s="18">
         <v>7</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="18">
         <v>81</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="18">
         <v>71</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9" s="18">
         <v>39</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F9" s="18">
         <v>28</v>
       </c>
-      <c r="G9" s="19">
+      <c r="G9" s="16">
         <f t="shared" si="1"/>
         <v>219</v>
       </c>
-      <c r="H9" s="30">
+      <c r="H9" s="23">
         <f t="shared" si="0"/>
         <v>0.54749999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="21">
+      <c r="A10" s="18">
         <v>8</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C10" s="18">
         <v>82</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D10" s="18">
         <v>72</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E10" s="18">
         <v>40</v>
       </c>
-      <c r="F10" s="21">
+      <c r="F10" s="18">
         <v>29</v>
       </c>
-      <c r="G10" s="19">
+      <c r="G10" s="16">
         <f t="shared" si="1"/>
         <v>223</v>
       </c>
-      <c r="H10" s="30">
+      <c r="H10" s="23">
         <f t="shared" si="0"/>
         <v>0.5575</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="21">
+      <c r="A11" s="18">
         <v>9</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="21">
+      <c r="C11" s="18">
         <v>83</v>
       </c>
-      <c r="D11" s="21">
+      <c r="D11" s="18">
         <v>73</v>
       </c>
-      <c r="E11" s="21">
+      <c r="E11" s="18">
         <v>41</v>
       </c>
-      <c r="F11" s="21">
+      <c r="F11" s="18">
         <v>30</v>
       </c>
-      <c r="G11" s="19">
+      <c r="G11" s="16">
         <f t="shared" si="1"/>
         <v>227</v>
       </c>
-      <c r="H11" s="30">
+      <c r="H11" s="23">
         <f t="shared" si="0"/>
         <v>0.5675</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="21">
+      <c r="A12" s="18">
         <v>10</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" s="18">
         <v>84</v>
       </c>
-      <c r="D12" s="21">
+      <c r="D12" s="18">
         <v>74</v>
       </c>
-      <c r="E12" s="21">
+      <c r="E12" s="18">
         <v>42</v>
       </c>
-      <c r="F12" s="21">
+      <c r="F12" s="18">
         <v>31</v>
       </c>
-      <c r="G12" s="19">
+      <c r="G12" s="16">
         <f t="shared" si="1"/>
         <v>231</v>
       </c>
-      <c r="H12" s="30">
+      <c r="H12" s="23">
         <f t="shared" si="0"/>
         <v>0.57750000000000001</v>
       </c>
@@ -1265,11 +1258,11 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="18"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="29"/>
     </row>
     <row r="3" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
